--- a/23/products.xlsx
+++ b/23/products.xlsx
@@ -11,340 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>product</t>
+    <t>Table 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005209142677.html</t>
-    </r>
+    <t>https://www.aliexpress.com/item/1005006044468489.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005738078947.html</t>
-    </r>
+    <t>https://www.aliexpress.com/item/4001057006410.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006141219237.html</t>
-    </r>
+    <t>https://www.aliexpress.com/item/2251832549099152.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006166992344.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005697909710.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005667408242.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005795556988.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006053829339.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005388642296.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006113518174.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006167014217.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005834369271.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006100181504.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005489390846.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005726205547.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006039977105.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006120124184.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006112296978.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005004177022552.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005344236772.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005356293365.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005974491595.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005004840828459.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005227060919.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005004895181076.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005004750937720.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005058345349.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005004883009515.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005006084936899.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.aliexpress.com/item/1005005480060485.html</t>
-    </r>
+    <t>https://www.aliexpress.com/item/3256804742640419.html</t>
   </si>
 </sst>
 </file>
@@ -354,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -371,21 +52,8 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <b val="1"/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +66,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -427,10 +101,70 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -458,24 +192,39 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,6 +246,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1555,209 +1305,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:A31"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="47.1719" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="68.25" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="68.05" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="68.05" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="68.05" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>5</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>7</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>10</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>11</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>13</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>15</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>16</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>17</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="5">
-        <v>20</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="5">
-        <v>30</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://www.aliexpress.com/item/1005005209142677.html"/>
-    <hyperlink ref="A3" r:id="rId2" location="" tooltip="" display="https://www.aliexpress.com/item/1005005738078947.html"/>
-    <hyperlink ref="A4" r:id="rId3" location="" tooltip="" display="https://www.aliexpress.com/item/1005006141219237.html"/>
-    <hyperlink ref="A5" r:id="rId4" location="" tooltip="" display="https://www.aliexpress.com/item/1005006166992344.html"/>
-    <hyperlink ref="A6" r:id="rId5" location="" tooltip="" display="https://www.aliexpress.com/item/1005005697909710.html"/>
-    <hyperlink ref="A7" r:id="rId6" location="" tooltip="" display="https://www.aliexpress.com/item/1005005667408242.html"/>
-    <hyperlink ref="A8" r:id="rId7" location="" tooltip="" display="https://www.aliexpress.com/item/1005005795556988.html"/>
-    <hyperlink ref="A9" r:id="rId8" location="" tooltip="" display="https://www.aliexpress.com/item/1005006053829339.html"/>
-    <hyperlink ref="A10" r:id="rId9" location="" tooltip="" display="https://www.aliexpress.com/item/1005005388642296.html"/>
-    <hyperlink ref="A11" r:id="rId10" location="" tooltip="" display="https://www.aliexpress.com/item/1005006113518174.html"/>
-    <hyperlink ref="A12" r:id="rId11" location="" tooltip="" display="https://www.aliexpress.com/item/1005006167014217.html"/>
-    <hyperlink ref="A13" r:id="rId12" location="" tooltip="" display="https://www.aliexpress.com/item/1005005834369271.html"/>
-    <hyperlink ref="A14" r:id="rId13" location="" tooltip="" display="https://www.aliexpress.com/item/1005006100181504.html"/>
-    <hyperlink ref="A15" r:id="rId14" location="" tooltip="" display="https://www.aliexpress.com/item/1005005489390846.html"/>
-    <hyperlink ref="A16" r:id="rId15" location="" tooltip="" display="https://www.aliexpress.com/item/1005005726205547.html"/>
-    <hyperlink ref="A17" r:id="rId16" location="" tooltip="" display="https://www.aliexpress.com/item/1005006039977105.html"/>
-    <hyperlink ref="A18" r:id="rId17" location="" tooltip="" display="https://www.aliexpress.com/item/1005006120124184.html"/>
-    <hyperlink ref="A19" r:id="rId18" location="" tooltip="" display="https://www.aliexpress.com/item/1005006112296978.html"/>
-    <hyperlink ref="A20" r:id="rId19" location="" tooltip="" display="https://www.aliexpress.com/item/1005004177022552.html"/>
-    <hyperlink ref="A21" r:id="rId20" location="" tooltip="" display="https://www.aliexpress.com/item/1005005344236772.html"/>
-    <hyperlink ref="A22" r:id="rId21" location="" tooltip="" display="https://www.aliexpress.com/item/1005005356293365.html"/>
-    <hyperlink ref="A23" r:id="rId22" location="" tooltip="" display="https://www.aliexpress.com/item/1005005974491595.html"/>
-    <hyperlink ref="A24" r:id="rId23" location="" tooltip="" display="https://www.aliexpress.com/item/1005004840828459.html"/>
-    <hyperlink ref="A25" r:id="rId24" location="" tooltip="" display="https://www.aliexpress.com/item/1005005227060919.html"/>
-    <hyperlink ref="A26" r:id="rId25" location="" tooltip="" display="https://www.aliexpress.com/item/1005004895181076.html"/>
-    <hyperlink ref="A27" r:id="rId26" location="" tooltip="" display="https://www.aliexpress.com/item/1005004750937720.html"/>
-    <hyperlink ref="A28" r:id="rId27" location="" tooltip="" display="https://www.aliexpress.com/item/1005005058345349.html"/>
-    <hyperlink ref="A29" r:id="rId28" location="" tooltip="" display="https://www.aliexpress.com/item/1005004883009515.html"/>
-    <hyperlink ref="A30" r:id="rId29" location="" tooltip="" display="https://www.aliexpress.com/item/1005006084936899.html"/>
-    <hyperlink ref="A31" r:id="rId30" location="" tooltip="" display="https://www.aliexpress.com/item/1005005480060485.html"/>
-  </hyperlinks>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/23/products.xlsx
+++ b/23/products.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Table 1</t>
+  </si>
+  <si>
+    <t>AliExpress Link</t>
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005006044468489.html</t>
@@ -35,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -47,13 +50,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,8 +80,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -85,6 +99,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -98,7 +134,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -107,7 +143,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -116,73 +152,110 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,38 +265,53 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -243,8 +331,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -263,10 +353,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -443,11 +533,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -456,34 +549,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -731,12 +824,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1027,7 +1120,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1305,11 +1398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1321,218 +1412,220 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="68.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="5">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="8">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" ht="68.25" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="68.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s" s="8">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="68.05" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="68.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s" s="8">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" ht="68.05" customHeight="1">
+      <c r="A5" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="68.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
